--- a/datasets/gdp/sectoral_gdp.xlsx
+++ b/datasets/gdp/sectoral_gdp.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\econ_gju\datasets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\econ_gju\datasets\gdp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{812C3A12-18E2-4484-A5FC-71A614AE8EDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44AA448A-B1BC-4D89-BB61-A5B900599E8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-114" yWindow="-114" windowWidth="19704" windowHeight="10736" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,129 +23,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="55">
   <si>
     <t>Year</t>
-  </si>
-  <si>
-    <t>1980-1981</t>
-  </si>
-  <si>
-    <t>1981-1982</t>
-  </si>
-  <si>
-    <t>1982-1983</t>
-  </si>
-  <si>
-    <t>1983-1984</t>
-  </si>
-  <si>
-    <t>1984-1985</t>
-  </si>
-  <si>
-    <t>1985-1986</t>
-  </si>
-  <si>
-    <t>1986-1987</t>
-  </si>
-  <si>
-    <t>1987-1988</t>
-  </si>
-  <si>
-    <t>1988-1989</t>
-  </si>
-  <si>
-    <t>1989-1990</t>
-  </si>
-  <si>
-    <t>1990-1991</t>
-  </si>
-  <si>
-    <t>1991-1992</t>
-  </si>
-  <si>
-    <t>1992-1993</t>
-  </si>
-  <si>
-    <t>1993-1994</t>
-  </si>
-  <si>
-    <t>1994-1995</t>
-  </si>
-  <si>
-    <t>1995-1996</t>
-  </si>
-  <si>
-    <t>1996-1997</t>
-  </si>
-  <si>
-    <t>1997-1998</t>
-  </si>
-  <si>
-    <t>1998-1999</t>
-  </si>
-  <si>
-    <t>1999-2000</t>
-  </si>
-  <si>
-    <t>2000-2001</t>
-  </si>
-  <si>
-    <t>2001-2002</t>
-  </si>
-  <si>
-    <t>2002-2003</t>
-  </si>
-  <si>
-    <t>2003-2004</t>
-  </si>
-  <si>
-    <t>2004-2005</t>
-  </si>
-  <si>
-    <t>2005-2006</t>
-  </si>
-  <si>
-    <t>2006-2007</t>
-  </si>
-  <si>
-    <t>2007-2008</t>
-  </si>
-  <si>
-    <t>2008-2009</t>
-  </si>
-  <si>
-    <t>2009-2010</t>
-  </si>
-  <si>
-    <t>2010-2011</t>
-  </si>
-  <si>
-    <t>2011-2012</t>
-  </si>
-  <si>
-    <t>2012-2013</t>
-  </si>
-  <si>
-    <t>2013-2014</t>
-  </si>
-  <si>
-    <t>2014-2015</t>
-  </si>
-  <si>
-    <t>2015-2016</t>
-  </si>
-  <si>
-    <t>2016-2017</t>
-  </si>
-  <si>
-    <t>2017-2018</t>
-  </si>
-  <si>
-    <t>2018-2019</t>
-  </si>
-  <si>
-    <t>2019-2020</t>
-  </si>
-  <si>
-    <t>2020-2021</t>
   </si>
   <si>
     <t>Agriculture and Allied Activities</t>
@@ -185,6 +62,129 @@
   </si>
   <si>
     <t>Other Services</t>
+  </si>
+  <si>
+    <t>1980-81</t>
+  </si>
+  <si>
+    <t>1981-82</t>
+  </si>
+  <si>
+    <t>1982-83</t>
+  </si>
+  <si>
+    <t>1983-84</t>
+  </si>
+  <si>
+    <t>1984-85</t>
+  </si>
+  <si>
+    <t>1985-86</t>
+  </si>
+  <si>
+    <t>1986-87</t>
+  </si>
+  <si>
+    <t>1987-88</t>
+  </si>
+  <si>
+    <t>1988-89</t>
+  </si>
+  <si>
+    <t>1989-90</t>
+  </si>
+  <si>
+    <t>1990-91</t>
+  </si>
+  <si>
+    <t>1991-92</t>
+  </si>
+  <si>
+    <t>1992-93</t>
+  </si>
+  <si>
+    <t>1993-94</t>
+  </si>
+  <si>
+    <t>1994-95</t>
+  </si>
+  <si>
+    <t>1995-96</t>
+  </si>
+  <si>
+    <t>1996-97</t>
+  </si>
+  <si>
+    <t>1997-98</t>
+  </si>
+  <si>
+    <t>1998-99</t>
+  </si>
+  <si>
+    <t>1999-00</t>
+  </si>
+  <si>
+    <t>2000-01</t>
+  </si>
+  <si>
+    <t>2001-02</t>
+  </si>
+  <si>
+    <t>2002-03</t>
+  </si>
+  <si>
+    <t>2003-04</t>
+  </si>
+  <si>
+    <t>2004-05</t>
+  </si>
+  <si>
+    <t>2005-06</t>
+  </si>
+  <si>
+    <t>2006-07</t>
+  </si>
+  <si>
+    <t>2007-08</t>
+  </si>
+  <si>
+    <t>2008-09</t>
+  </si>
+  <si>
+    <t>2009-10</t>
+  </si>
+  <si>
+    <t>2010-11</t>
+  </si>
+  <si>
+    <t>2011-12</t>
+  </si>
+  <si>
+    <t>2012-13</t>
+  </si>
+  <si>
+    <t>2013-14</t>
+  </si>
+  <si>
+    <t>2014-15</t>
+  </si>
+  <si>
+    <t>2015-16</t>
+  </si>
+  <si>
+    <t>2016-17</t>
+  </si>
+  <si>
+    <t>2017-18</t>
+  </si>
+  <si>
+    <t>2018-19</t>
+  </si>
+  <si>
+    <t>2019-20</t>
+  </si>
+  <si>
+    <t>2020-21</t>
   </si>
 </sst>
 </file>
@@ -1052,8 +1052,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FF3DF6C-6D47-477B-8A13-545B5BA59118}">
   <dimension ref="A1:C534"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="A211" sqref="A211:A452"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.399999999999999" x14ac:dyDescent="0.3"/>
@@ -1069,18 +1069,18 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="C2" s="2">
         <v>2287175</v>
@@ -1088,10 +1088,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="C3" s="2">
         <v>11605</v>
@@ -1099,10 +1099,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="C4" s="2">
         <v>540241</v>
@@ -1110,10 +1110,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="C5" s="2">
         <v>593002</v>
@@ -1121,10 +1121,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="C6" s="2">
         <v>27564</v>
@@ -1132,10 +1132,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="C7" s="2">
         <v>94330</v>
@@ -1143,10 +1143,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="C8" s="2">
         <v>166266</v>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="C9" s="2">
         <v>26521</v>
@@ -1165,10 +1165,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="C10" s="2">
         <v>428979</v>
@@ -1176,10 +1176,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="C11" s="2">
         <v>90573</v>
@@ -1187,10 +1187,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="C12" s="2">
         <v>164749</v>
@@ -1198,10 +1198,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="C13" s="2">
         <v>2261394</v>
@@ -1209,10 +1209,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="C14" s="2">
         <v>11568</v>
@@ -1220,10 +1220,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="C15" s="2">
         <v>574591</v>
@@ -1231,10 +1231,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="C16" s="2">
         <v>591465</v>
@@ -1242,10 +1242,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="C17" s="2">
         <v>31174</v>
@@ -1253,10 +1253,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="C18" s="2">
         <v>99907</v>
@@ -1264,10 +1264,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="C19" s="2">
         <v>200958</v>
@@ -1275,10 +1275,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="C20" s="2">
         <v>29171</v>
@@ -1286,10 +1286,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="C21" s="2">
         <v>446420</v>
@@ -1297,10 +1297,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="C22" s="2">
         <v>93874</v>
@@ -1308,10 +1308,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="C23" s="2">
         <v>181414</v>
@@ -1319,10 +1319,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="C24" s="2">
         <v>2368033</v>
@@ -1330,10 +1330,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="C25" s="2">
         <v>8658</v>
@@ -1341,10 +1341,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="C26" s="2">
         <v>619069</v>
@@ -1352,10 +1352,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="C27" s="2">
         <v>576192</v>
@@ -1363,10 +1363,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="C28" s="2">
         <v>31949</v>
@@ -1374,10 +1374,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="C29" s="2">
         <v>111533</v>
@@ -1385,10 +1385,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="C30" s="2">
         <v>221610</v>
@@ -1396,10 +1396,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="C31" s="2">
         <v>35387</v>
@@ -1407,10 +1407,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="C32" s="2">
         <v>465055</v>
@@ -1418,10 +1418,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="C33" s="2">
         <v>108447</v>
@@ -1429,10 +1429,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="C34" s="2">
         <v>188512</v>
@@ -1440,10 +1440,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="C35" s="2">
         <v>2439859</v>
@@ -1451,10 +1451,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="C36" s="2">
         <v>6454</v>
@@ -1462,10 +1462,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="C37" s="2">
         <v>662119</v>
@@ -1473,10 +1473,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="C38" s="2">
         <v>571101</v>
@@ -1484,10 +1484,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="C39" s="2">
         <v>31931</v>
@@ -1495,10 +1495,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="C40" s="2">
         <v>114305</v>
@@ -1506,10 +1506,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="C41" s="2">
         <v>206625</v>
@@ -1517,10 +1517,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="C42" s="2">
         <v>36801</v>
@@ -1528,10 +1528,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="C43" s="2">
         <v>484133</v>
@@ -1539,10 +1539,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="C44" s="2">
         <v>118851</v>
@@ -1550,10 +1550,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="C45" s="2">
         <v>197315</v>
@@ -1561,10 +1561,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="C46" s="2">
         <v>2508410</v>
@@ -1572,10 +1572,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="C47" s="2">
         <v>4903</v>
@@ -1583,10 +1583,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="C48" s="2">
         <v>741837</v>
@@ -1594,10 +1594,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="C49" s="2">
         <v>575183</v>
@@ -1605,10 +1605,10 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="C50" s="2">
         <v>30141</v>
@@ -1616,10 +1616,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="C51" s="2">
         <v>121909</v>
@@ -1627,10 +1627,10 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="C52" s="2">
         <v>209039</v>
@@ -1638,10 +1638,10 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="C53" s="2">
         <v>40588</v>
@@ -1649,10 +1649,10 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="C54" s="2">
         <v>505226</v>
@@ -1660,10 +1660,10 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="C55" s="2">
         <v>120467</v>
@@ -1671,10 +1671,10 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="C56" s="2">
         <v>208481</v>
@@ -1682,10 +1682,10 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="C57" s="2">
         <v>2829162</v>
@@ -1693,10 +1693,10 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="C58" s="2">
         <v>7813</v>
@@ -1704,10 +1704,10 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="C59" s="2">
         <v>975531</v>
@@ -1715,10 +1715,10 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="C60" s="2">
         <v>653325</v>
@@ -1726,10 +1726,10 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="C61" s="2">
         <v>34346</v>
@@ -1737,10 +1737,10 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="C62" s="2">
         <v>132889</v>
@@ -1748,10 +1748,10 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="C63" s="2">
         <v>263717</v>
@@ -1759,10 +1759,10 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="C64" s="2">
         <v>42925</v>
@@ -1770,10 +1770,10 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="C65" s="2">
         <v>535636</v>
@@ -1781,10 +1781,10 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="C66" s="2">
         <v>137403</v>
@@ -1792,10 +1792,10 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="C67" s="2">
         <v>218906</v>
@@ -1803,10 +1803,10 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="C68" s="2">
         <v>2702283</v>
@@ -1814,10 +1814,10 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="C69" s="2">
         <v>9245</v>
@@ -1825,10 +1825,10 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="C70" s="2">
         <v>1015066</v>
@@ -1836,10 +1836,10 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="C71" s="2">
         <v>676090</v>
@@ -1847,10 +1847,10 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="C72" s="2">
         <v>37549</v>
@@ -1858,10 +1858,10 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="C73" s="2">
         <v>140485</v>
@@ -1869,10 +1869,10 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B74" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="C74" s="2">
         <v>265878</v>
@@ -1880,10 +1880,10 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="C75" s="2">
         <v>57633</v>
@@ -1891,10 +1891,10 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="C76" s="2">
         <v>555567</v>
@@ -1902,10 +1902,10 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="C77" s="2">
         <v>142581</v>
@@ -1913,10 +1913,10 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="C78" s="2">
         <v>227567</v>
@@ -1924,10 +1924,10 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="C79" s="2">
         <v>2362859</v>
@@ -1935,10 +1935,10 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="4" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="C80" s="2">
         <v>8603</v>
@@ -1946,10 +1946,10 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="C81" s="2">
         <v>1097915</v>
@@ -1957,10 +1957,10 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="C82" s="2">
         <v>643479</v>
@@ -1968,10 +1968,10 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="4" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="C83" s="2">
         <v>41333</v>
@@ -1979,10 +1979,10 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="C84" s="2">
         <v>152367</v>
@@ -1990,10 +1990,10 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="C85" s="2">
         <v>294771</v>
@@ -2001,10 +2001,10 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B86" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="C86" s="2">
         <v>73242</v>
@@ -2012,10 +2012,10 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="C87" s="2">
         <v>581506</v>
@@ -2023,10 +2023,10 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="4" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="C88" s="2">
         <v>165551</v>
@@ -2034,10 +2034,10 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="4" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="C89" s="2">
         <v>240832</v>
@@ -2045,10 +2045,10 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="4" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="C90" s="2">
         <v>3273226</v>
@@ -2056,10 +2056,10 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="4" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="C91" s="2">
         <v>7795</v>
@@ -2067,10 +2067,10 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="4" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="C92" s="2">
         <v>1276860</v>
@@ -2078,10 +2078,10 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="4" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="C93" s="2">
         <v>646361</v>
@@ -2089,10 +2089,10 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="4" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="C94" s="2">
         <v>51800</v>
@@ -2100,10 +2100,10 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="4" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="C95" s="2">
         <v>169587</v>
@@ -2111,10 +2111,10 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="4" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="C96" s="2">
         <v>339279</v>
@@ -2122,10 +2122,10 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="4" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="C97" s="2">
         <v>60662</v>
@@ -2133,10 +2133,10 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B98" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="C98" s="2">
         <v>609561</v>
@@ -2144,10 +2144,10 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="4" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="C99" s="2">
         <v>185955</v>
@@ -2155,10 +2155,10 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="4" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="C100" s="2">
         <v>250065</v>
@@ -2166,10 +2166,10 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="4" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="C101" s="2">
         <v>3225814</v>
@@ -2177,10 +2177,10 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="4" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="C102" s="2">
         <v>8658</v>
@@ -2188,10 +2188,10 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="4" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="C103" s="2">
         <v>1272444</v>
@@ -2199,10 +2199,10 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="4" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="C104" s="2">
         <v>641030</v>
@@ -2210,10 +2210,10 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="4" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="C105" s="2">
         <v>54121</v>
@@ -2221,10 +2221,10 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="4" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="C106" s="2">
         <v>188395</v>
@@ -2232,10 +2232,10 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="4" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="C107" s="2">
         <v>353311</v>
@@ -2243,10 +2243,10 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="4" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="C108" s="2">
         <v>78635</v>
@@ -2254,10 +2254,10 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="4" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="C109" s="2">
         <v>639152</v>
@@ -2265,10 +2265,10 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B110" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="C110" s="2">
         <v>197179</v>
@@ -2276,10 +2276,10 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="4" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="C111" s="2">
         <v>271513</v>
@@ -2287,10 +2287,10 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="4" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="C112" s="2">
         <v>3575408</v>
@@ -2298,10 +2298,10 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" s="4" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="C113" s="2">
         <v>11522</v>
@@ -2309,10 +2309,10 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="4" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="C114" s="2">
         <v>1410240</v>
@@ -2320,10 +2320,10 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="4" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="C115" s="2">
         <v>712063</v>
@@ -2331,10 +2331,10 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="4" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="C116" s="2">
         <v>58563</v>
@@ -2342,10 +2342,10 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="4" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="C117" s="2">
         <v>213193</v>
@@ -2353,10 +2353,10 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" s="4" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="C118" s="2">
         <v>371503</v>
@@ -2364,10 +2364,10 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="4" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="C119" s="2">
         <v>85991</v>
@@ -2375,10 +2375,10 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="4" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="C120" s="2">
         <v>667684</v>
@@ -2386,10 +2386,10 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="4" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="C121" s="2">
         <v>209531</v>
@@ -2397,10 +2397,10 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="4" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="C122" s="2">
         <v>280280</v>
@@ -2408,10 +2408,10 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" s="4" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="C123" s="2">
         <v>3558849</v>
@@ -2419,10 +2419,10 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" s="4" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="C124" s="2">
         <v>14745</v>
@@ -2430,10 +2430,10 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" s="4" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="C125" s="2">
         <v>1391587</v>
@@ -2441,10 +2441,10 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" s="4" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="C126" s="2">
         <v>748180</v>
@@ -2452,10 +2452,10 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="4" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="C127" s="2">
         <v>69511</v>
@@ -2463,10 +2463,10 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="4" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="C128" s="2">
         <v>256651</v>
@@ -2474,10 +2474,10 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="4" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="C129" s="2">
         <v>398185</v>
@@ -2485,10 +2485,10 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="4" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="C130" s="2">
         <v>98353</v>
@@ -2496,10 +2496,10 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" s="4" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="C131" s="2">
         <v>696763</v>
@@ -2507,10 +2507,10 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="4" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="C132" s="2">
         <v>205837</v>
@@ -2518,10 +2518,10 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" s="4" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="C133" s="2">
         <v>295895</v>
@@ -2529,10 +2529,10 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="4" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="C134" s="2">
         <v>3645906</v>
@@ -2540,10 +2540,10 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="4" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="C135" s="2">
         <v>15608</v>
@@ -2551,10 +2551,10 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" s="4" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="C136" s="2">
         <v>1354612</v>
@@ -2562,10 +2562,10 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" s="4" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="C137" s="2">
         <v>726760</v>
@@ -2573,10 +2573,10 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" s="4" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="C138" s="2">
         <v>77099</v>
@@ -2584,10 +2584,10 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" s="4" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="C139" s="2">
         <v>225738</v>
@@ -2595,10 +2595,10 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" s="4" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="C140" s="2">
         <v>402262</v>
@@ -2606,10 +2606,10 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" s="4" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="C141" s="2">
         <v>88319</v>
@@ -2617,10 +2617,10 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" s="4" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="C142" s="2">
         <v>728436</v>
@@ -2628,10 +2628,10 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" s="4" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="C143" s="2">
         <v>204626</v>
@@ -2639,10 +2639,10 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B144" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="B144" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="C144" s="2">
         <v>306106</v>
@@ -2650,10 +2650,10 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" s="4" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="C145" s="2">
         <v>3761767</v>
@@ -2661,10 +2661,10 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" s="4" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="C146" s="2">
         <v>14956</v>
@@ -2672,10 +2672,10 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" s="4" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="C147" s="2">
         <v>1476776</v>
@@ -2683,10 +2683,10 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" s="4" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="C148" s="2">
         <v>709662</v>
@@ -2694,10 +2694,10 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" s="4" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="C149" s="2">
         <v>75429</v>
@@ -2705,10 +2705,10 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" s="4" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="C150" s="2">
         <v>234749</v>
@@ -2716,10 +2716,10 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" s="4" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="C151" s="2">
         <v>427400</v>
@@ -2727,10 +2727,10 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" s="4" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="C152" s="2">
         <v>96262</v>
@@ -2738,10 +2738,10 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" s="4" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="C153" s="2">
         <v>762327</v>
@@ -2749,10 +2749,10 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" s="4" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="C154" s="2">
         <v>213331</v>
@@ -2760,10 +2760,10 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" s="4" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="C155" s="2">
         <v>320588</v>
@@ -2771,10 +2771,10 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" s="4" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="C156" s="2">
         <v>4025642</v>
@@ -2782,10 +2782,10 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" s="4" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="C157" s="2">
         <v>15228</v>
@@ -2793,10 +2793,10 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" s="4" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="C158" s="2">
         <v>1618757</v>
@@ -2804,10 +2804,10 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" s="4" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="C159" s="2">
         <v>762608</v>
@@ -2815,10 +2815,10 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" s="4" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="C160" s="2">
         <v>84794</v>
@@ -2826,10 +2826,10 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" s="4" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="C161" s="2">
         <v>244608</v>
@@ -2837,10 +2837,10 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" s="4" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="C162" s="2">
         <v>456360</v>
@@ -2848,10 +2848,10 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" s="4" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="C163" s="2">
         <v>106342</v>
@@ -2859,10 +2859,10 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" s="4" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="C164" s="2">
         <v>793138</v>
@@ -2870,10 +2870,10 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" s="4" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="C165" s="2">
         <v>224827</v>
@@ -2881,10 +2881,10 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" s="4" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="C166" s="2">
         <v>328142</v>
@@ -2892,10 +2892,10 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" s="4" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="C167" s="2">
         <v>3838643</v>
@@ -2903,10 +2903,10 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" s="4" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="C168" s="2">
         <v>13128</v>
@@ -2914,10 +2914,10 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" s="4" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="C169" s="2">
         <v>1777667</v>
@@ -2925,10 +2925,10 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" s="4" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="C170" s="2">
         <v>796066</v>
@@ -2936,10 +2936,10 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" s="4" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="C171" s="2">
         <v>90558</v>
@@ -2947,10 +2947,10 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" s="4" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="C172" s="2">
         <v>264486</v>
@@ -2958,10 +2958,10 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" s="4" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="C173" s="2">
         <v>498554</v>
@@ -2969,10 +2969,10 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" s="4" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="C174" s="2">
         <v>115808</v>
@@ -2980,10 +2980,10 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" s="4" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="C175" s="2">
         <v>822996</v>
@@ -2991,10 +2991,10 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" s="4" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="C176" s="2">
         <v>230569</v>
@@ -3002,10 +3002,10 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" s="4" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="C177" s="2">
         <v>345051</v>
@@ -3013,10 +3013,10 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" s="4" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="C178" s="2">
         <v>4240403</v>
@@ -3024,10 +3024,10 @@
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" s="4" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="C179" s="2">
         <v>25655</v>
@@ -3035,10 +3035,10 @@
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" s="4" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="C180" s="2">
         <v>1946324</v>
@@ -3046,10 +3046,10 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" s="4" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="C181" s="2">
         <v>786012</v>
@@ -3057,10 +3057,10 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" s="4" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="C182" s="2">
         <v>102225</v>
@@ -3068,10 +3068,10 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" s="4" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="C183" s="2">
         <v>301984</v>
@@ -3079,10 +3079,10 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" s="4" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="C184" s="2">
         <v>605239</v>
@@ -3090,10 +3090,10 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" s="4" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="C185" s="2">
         <v>162738</v>
@@ -3101,10 +3101,10 @@
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" s="4" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="C186" s="2">
         <v>855819</v>
@@ -3112,10 +3112,10 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" s="4" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="C187" s="2">
         <v>252291</v>
@@ -3123,10 +3123,10 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" s="4" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="C188" s="2">
         <v>372356</v>
@@ -3134,10 +3134,10 @@
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" s="4" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="C189" s="2">
         <v>3914053</v>
@@ -3145,10 +3145,10 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" s="4" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="C190" s="2">
         <v>19912</v>
@@ -3156,10 +3156,10 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" s="4" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="C191" s="2">
         <v>2073490</v>
@@ -3167,10 +3167,10 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" s="4" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="C192" s="2">
         <v>831384</v>
@@ -3178,10 +3178,10 @@
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" s="4" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="C193" s="2">
         <v>111396</v>
@@ -3189,10 +3189,10 @@
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" s="4" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="C194" s="2">
         <v>325338</v>
@@ -3200,10 +3200,10 @@
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" s="4" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="C195" s="2">
         <v>648489</v>
@@ -3211,10 +3211,10 @@
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" s="4" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="C196" s="2">
         <v>199096</v>
@@ -3222,10 +3222,10 @@
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" s="4" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="C197" s="2">
         <v>888841</v>
@@ -3233,10 +3233,10 @@
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" s="4" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="C198" s="2">
         <v>264295</v>
@@ -3244,10 +3244,10 @@
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" s="4" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="C199" s="2">
         <v>396807</v>
@@ -3255,10 +3255,10 @@
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" s="4" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="C200" s="2">
         <v>4040473</v>
@@ -3266,10 +3266,10 @@
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" s="4" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="C201" s="2">
         <v>25340</v>
@@ -3277,10 +3277,10 @@
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" s="4" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="C202" s="2">
         <v>2202582</v>
@@ -3288,10 +3288,10 @@
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" s="4" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="C203" s="2">
         <v>904250</v>
@@ -3299,10 +3299,10 @@
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" s="4" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="C204" s="2">
         <v>128612</v>
@@ -3310,10 +3310,10 @@
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" s="4" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="C205" s="2">
         <v>370929</v>
@@ -3321,10 +3321,10 @@
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" s="4" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="C206" s="2">
         <v>637913</v>
@@ -3332,10 +3332,10 @@
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" s="4" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="C207" s="2">
         <v>195932</v>
@@ -3343,10 +3343,10 @@
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" s="4" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="C208" s="2">
         <v>923160</v>
@@ -3354,10 +3354,10 @@
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" s="4" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="C209" s="2">
         <v>364715</v>
@@ -3365,10 +3365,10 @@
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210" s="4" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="C210" s="2">
         <v>442961</v>
@@ -3376,10 +3376,10 @@
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" s="4" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="C211" s="2">
         <v>4222515</v>
@@ -3387,10 +3387,10 @@
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" s="4" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="C212" s="2">
         <v>27592</v>
@@ -3398,10 +3398,10 @@
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" s="4" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="C213" s="2">
         <v>2335789</v>
@@ -3409,10 +3409,10 @@
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" s="4" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="C214" s="2">
         <v>949535</v>
@@ -3420,10 +3420,10 @@
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215" s="4" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="C215" s="2">
         <v>127959</v>
@@ -3431,10 +3431,10 @@
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" s="4" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="C216" s="2">
         <v>421908</v>
@@ -3442,10 +3442,10 @@
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217" s="4" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="C217" s="2">
         <v>738465</v>
@@ -3453,10 +3453,10 @@
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" s="4" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="C218" s="2">
         <v>251513</v>
@@ -3464,10 +3464,10 @@
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" s="4" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="C219" s="2">
         <v>957602</v>
@@ -3475,10 +3475,10 @@
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" s="4" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="C220" s="2">
         <v>361301</v>
@@ -3486,10 +3486,10 @@
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" s="4" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="C221" s="2">
         <v>455200</v>
@@ -3497,10 +3497,10 @@
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222" s="4" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="C222" s="2">
         <v>4369344</v>
@@ -3508,10 +3508,10 @@
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" s="4" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="C223" s="2">
         <v>31520</v>
@@ -3519,10 +3519,10 @@
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" s="4" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="C224" s="2">
         <v>2485201</v>
@@ -3530,10 +3530,10 @@
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" s="4" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="C225" s="2">
         <v>958921</v>
@@ -3541,10 +3541,10 @@
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" s="4" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="C226" s="2">
         <v>134428</v>
@@ -3552,10 +3552,10 @@
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227" s="4" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="C227" s="2">
         <v>488421</v>
@@ -3563,10 +3563,10 @@
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" s="4" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="C228" s="2">
         <v>892812</v>
@@ -3574,10 +3574,10 @@
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229" s="4" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="C229" s="2">
         <v>265334</v>
@@ -3585,10 +3585,10 @@
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230" s="4" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="C230" s="2">
         <v>1196545</v>
@@ -3596,10 +3596,10 @@
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231" s="4" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="C231" s="2">
         <v>352343</v>
@@ -3607,10 +3607,10 @@
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232" s="4" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="C232" s="2">
         <v>470686</v>
@@ -3618,10 +3618,10 @@
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233" s="4" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="C233" s="2">
         <v>4363441</v>
@@ -3629,10 +3629,10 @@
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234" s="4" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="C234" s="2">
         <v>38118</v>
@@ -3640,10 +3640,10 @@
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235" s="4" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="C235" s="2">
         <v>2621112</v>
@@ -3651,10 +3651,10 @@
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" s="4" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="C236" s="2">
         <v>1205127</v>
@@ -3662,10 +3662,10 @@
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237" s="4" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="C237" s="2">
         <v>139744</v>
@@ -3673,10 +3673,10 @@
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238" s="4" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="C238" s="2">
         <v>562031</v>
@@ -3684,10 +3684,10 @@
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239" s="4" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="C239" s="2">
         <v>1000541</v>
@@ -3695,10 +3695,10 @@
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240" s="4" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="C240" s="2">
         <v>279741</v>
@@ -3706,10 +3706,10 @@
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241" s="4" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="C241" s="2">
         <v>1442563</v>
@@ -3717,10 +3717,10 @@
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242" s="4" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="C242" s="2">
         <v>360311</v>
@@ -3728,10 +3728,10 @@
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243" s="4" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="C243" s="2">
         <v>510865</v>
@@ -3739,10 +3739,10 @@
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244" s="4" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="C244" s="2">
         <v>4314155</v>
@@ -3750,10 +3750,10 @@
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245" s="4" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="C245" s="2">
         <v>25998</v>
@@ -3761,10 +3761,10 @@
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246" s="4" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="C246" s="2">
         <v>2817772</v>
@@ -3772,10 +3772,10 @@
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247" s="4" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="C247" s="2">
         <v>1356137</v>
@@ -3783,10 +3783,10 @@
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248" s="4" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="C248" s="2">
         <v>155595</v>
@@ -3794,10 +3794,10 @@
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249" s="4" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="C249" s="2">
         <v>642712</v>
@@ -3805,10 +3805,10 @@
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250" s="4" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="C250" s="2">
         <v>1086675</v>
@@ -3816,10 +3816,10 @@
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251" s="4" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="C251" s="2">
         <v>311694</v>
@@ -3827,10 +3827,10 @@
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252" s="4" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="C252" s="2">
         <v>1686302</v>
@@ -3838,10 +3838,10 @@
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A253" s="4" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="C253" s="2">
         <v>374074</v>
@@ -3849,10 +3849,10 @@
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254" s="4" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="C254" s="2">
         <v>531142</v>
@@ -3860,10 +3860,10 @@
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A255" s="4" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="C255" s="2">
         <v>4647748</v>
@@ -3871,10 +3871,10 @@
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A256" s="4" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="C256" s="2">
         <v>29195</v>
@@ -3882,10 +3882,10 @@
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A257" s="4" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="C257" s="2">
         <v>3064651</v>
@@ -3893,10 +3893,10 @@
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A258" s="4" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="C258" s="2">
         <v>1583326</v>
@@ -3904,10 +3904,10 @@
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259" s="4" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="C259" s="2">
         <v>168191</v>
@@ -3915,10 +3915,10 @@
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A260" s="4" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="C260" s="2">
         <v>794871</v>
@@ -3926,10 +3926,10 @@
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A261" s="4" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="C261" s="2">
         <v>1150530</v>
@@ -3937,10 +3937,10 @@
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A262" s="4" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="C262" s="2">
         <v>307259</v>
@@ -3948,10 +3948,10 @@
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A263" s="4" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="C263" s="2">
         <v>1965830</v>
@@ -3959,10 +3959,10 @@
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A264" s="4" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="C264" s="2">
         <v>404386</v>
@@ -3970,10 +3970,10 @@
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A265" s="4" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="C265" s="2">
         <v>559378</v>
@@ -3981,10 +3981,10 @@
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A266" s="4" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="C266" s="2">
         <v>4804556</v>
@@ -3992,10 +3992,10 @@
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A267" s="4" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="C267" s="2">
         <v>29792</v>
@@ -4003,10 +4003,10 @@
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A268" s="4" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="C268" s="2">
         <v>3323734</v>
@@ -4014,10 +4014,10 @@
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A269" s="4" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="C269" s="2">
         <v>1850176</v>
@@ -4025,10 +4025,10 @@
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A270" s="4" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="C270" s="2">
         <v>180170</v>
@@ -4036,10 +4036,10 @@
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A271" s="4" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="C271" s="2">
         <v>860050</v>
@@ -4047,10 +4047,10 @@
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A272" s="4" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="C272" s="2">
         <v>1295988</v>
@@ -4058,10 +4058,10 @@
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A273" s="4" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="C273" s="2">
         <v>338509</v>
@@ -4069,10 +4069,10 @@
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A274" s="4" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="C274" s="2">
         <v>2186233</v>
@@ -4080,10 +4080,10 @@
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A275" s="4" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="C275" s="2">
         <v>427774</v>
@@ -4091,10 +4091,10 @@
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A276" s="4" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="C276" s="2">
         <v>587330</v>
@@ -4102,10 +4102,10 @@
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A277" s="4" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="C277" s="2">
         <v>4717786</v>
@@ -4113,10 +4113,10 @@
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A278" s="4" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="C278" s="2">
         <v>54866</v>
@@ -4124,10 +4124,10 @@
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A279" s="4" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="C279" s="2">
         <v>3578398</v>
@@ -4135,10 +4135,10 @@
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280" s="4" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="C280" s="2">
         <v>2012767</v>
@@ -4146,10 +4146,10 @@
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A281" s="4" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="C281" s="2">
         <v>194889</v>
@@ -4157,10 +4157,10 @@
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A282" s="4" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="C282" s="2">
         <v>1021242</v>
@@ -4168,10 +4168,10 @@
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A283" s="4" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="C283" s="2">
         <v>1462004</v>
@@ -4179,10 +4179,10 @@
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A284" s="4" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="C284" s="2">
         <v>419786</v>
@@ -4190,10 +4190,10 @@
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A285" s="4" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="C285" s="2">
         <v>2627222</v>
@@ -4201,10 +4201,10 @@
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A286" s="4" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="C286" s="2">
         <v>466200</v>
@@ -4212,10 +4212,10 @@
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A287" s="4" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="C287" s="2">
         <v>639940</v>
@@ -4223,10 +4223,10 @@
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A288" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="C288" s="2">
         <v>5385428</v>
@@ -4234,10 +4234,10 @@
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A289" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="C289" s="2">
         <v>52418</v>
@@ -4245,10 +4245,10 @@
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A290" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="C290" s="2">
         <v>3903644</v>
@@ -4256,10 +4256,10 @@
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A291" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="C291" s="2">
         <v>2223480</v>
@@ -4267,10 +4267,10 @@
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A292" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="C292" s="2">
         <v>207452</v>
@@ -4278,10 +4278,10 @@
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A293" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="C293" s="2">
         <v>1134239</v>
@@ -4289,10 +4289,10 @@
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A294" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="C294" s="2">
         <v>1666567</v>
@@ -4300,10 +4300,10 @@
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A295" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="C295" s="2">
         <v>515142</v>
@@ -4311,10 +4311,10 @@
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A296" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="C296" s="2">
         <v>2783534</v>
@@ -4322,10 +4322,10 @@
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A297" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="C297" s="2">
         <v>471801</v>
@@ -4333,10 +4333,10 @@
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A298" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="C298" s="2">
         <v>704480</v>
@@ -4344,10 +4344,10 @@
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A299" s="4" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="C299" s="2">
         <v>5382117</v>
@@ -4355,10 +4355,10 @@
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A300" s="4" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="C300" s="2">
         <v>54411</v>
@@ -4366,10 +4366,10 @@
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A301" s="4" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="C301" s="2">
         <v>4233214</v>
@@ -4377,10 +4377,10 @@
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A302" s="4" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="C302" s="2">
         <v>2275265</v>
@@ -4388,10 +4388,10 @@
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A303" s="4" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="C303" s="2">
         <v>225513</v>
@@ -4399,10 +4399,10 @@
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A304" s="4" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="C304" s="2">
         <v>1292280</v>
@@ -4410,10 +4410,10 @@
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A305" s="4" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="C305" s="2">
         <v>1937730</v>
@@ -4421,10 +4421,10 @@
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A306" s="4" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="C306" s="2">
         <v>613519</v>
@@ -4432,10 +4432,10 @@
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A307" s="4" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="C307" s="2">
         <v>3084397</v>
@@ -4443,10 +4443,10 @@
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A308" s="4" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="C308" s="2">
         <v>503108</v>
@@ -4454,10 +4454,10 @@
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A309" s="4" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="C309" s="2">
         <v>762074</v>
@@ -4465,10 +4465,10 @@
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A310" s="4" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="C310" s="2">
         <v>5770281</v>
@@ -4476,10 +4476,10 @@
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A311" s="4" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="C311" s="2">
         <v>50193</v>
@@ -4487,10 +4487,10 @@
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A312" s="4" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="C312" s="2">
         <v>4345350</v>
@@ -4498,10 +4498,10 @@
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A313" s="4" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="C313" s="2">
         <v>2382131</v>
@@ -4509,10 +4509,10 @@
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A314" s="4" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="C314" s="2">
         <v>247314</v>
@@ -4520,10 +4520,10 @@
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A315" s="4" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="C315" s="2">
         <v>1361950</v>
@@ -4531,10 +4531,10 @@
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A316" s="4" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="C316" s="2">
         <v>2190201</v>
@@ -4542,10 +4542,10 @@
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A317" s="4" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="C317" s="2">
         <v>685881</v>
@@ -4553,10 +4553,10 @@
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A318" s="4" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="C318" s="2">
         <v>3311675</v>
@@ -4564,10 +4564,10 @@
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A319" s="4" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="C319" s="2">
         <v>631007</v>
@@ -4575,10 +4575,10 @@
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A320" s="4" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="C320" s="2">
         <v>906935</v>
@@ -4586,10 +4586,10 @@
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A321" s="4" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="C321" s="2">
         <v>5686792</v>
@@ -4597,10 +4597,10 @@
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A322" s="4" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="C322" s="2">
         <v>25313</v>
@@ -4608,10 +4608,10 @@
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A323" s="4" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="C323" s="2">
         <v>4806040</v>
@@ -4619,10 +4619,10 @@
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A324" s="4" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="C324" s="2">
         <v>2693894</v>
@@ -4630,10 +4630,10 @@
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A325" s="4" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="C325" s="2">
         <v>299863</v>
@@ -4641,10 +4641,10 @@
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A326" s="4" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="C326" s="2">
         <v>1496606</v>
@@ -4652,10 +4652,10 @@
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A327" s="4" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="C327" s="2">
         <v>2645670</v>
@@ -4663,10 +4663,10 @@
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A328" s="4" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="C328" s="2">
         <v>789174</v>
@@ -4674,10 +4674,10 @@
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A329" s="4" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="C329" s="2">
         <v>3754539</v>
@@ -4685,10 +4685,10 @@
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A330" s="4" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="C330" s="2">
         <v>699322</v>
@@ -4696,10 +4696,10 @@
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A331" s="4" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="C331" s="2">
         <v>1139616</v>
@@ -4707,10 +4707,10 @@
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A332" s="4" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="C332" s="2">
         <v>5983365</v>
@@ -4718,10 +4718,10 @@
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A333" s="4" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="C333" s="2">
         <v>10464</v>
@@ -4729,10 +4729,10 @@
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A334" s="4" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="C334" s="2">
         <v>5192629</v>
@@ -4740,10 +4740,10 @@
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A335" s="4" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="C335" s="2">
         <v>2722489</v>
@@ -4751,10 +4751,10 @@
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A336" s="4" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="C336" s="2">
         <v>316318</v>
@@ -4762,10 +4762,10 @@
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A337" s="4" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="C337" s="2">
         <v>1570186</v>
@@ -4773,10 +4773,10 @@
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A338" s="4" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="C338" s="2">
         <v>3040017</v>
@@ -4784,10 +4784,10 @@
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A339" s="4" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="C339" s="2">
         <v>989833</v>
@@ -4795,10 +4795,10 @@
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A340" s="4" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="C340" s="2">
         <v>3646442</v>
@@ -4806,10 +4806,10 @@
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A341" s="4" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="C341" s="2">
         <v>736577</v>
@@ -4817,10 +4817,10 @@
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A342" s="4" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="C342" s="2">
         <v>1185396</v>
@@ -4828,10 +4828,10 @@
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A343" s="4" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="C343" s="2">
         <v>6453886</v>
@@ -4839,10 +4839,10 @@
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A344" s="4" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="C344" s="2">
         <v>11882</v>
@@ -4850,10 +4850,10 @@
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A345" s="4" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="C345" s="2">
         <v>5328609</v>
@@ -4861,10 +4861,10 @@
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A346" s="4" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="C346" s="2">
         <v>2975966</v>
@@ -4872,10 +4872,10 @@
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A347" s="4" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="C347" s="2">
         <v>344604</v>
@@ -4883,10 +4883,10 @@
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A348" s="4" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="C348" s="2">
         <v>1727689</v>
@@ -4894,10 +4894,10 @@
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A349" s="4" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="C349" s="2">
         <v>3310742</v>
@@ -4905,10 +4905,10 @@
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A350" s="4" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="C350" s="2">
         <v>1165659</v>
@@ -4916,10 +4916,10 @@
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A351" s="4" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="C351" s="2">
         <v>4092800</v>
@@ -4927,10 +4927,10 @@
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A352" s="4" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="C352" s="2">
         <v>729814</v>
@@ -4938,10 +4938,10 @@
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A353" s="4" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="C353" s="2">
         <v>1265812</v>
@@ -4949,10 +4949,10 @@
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A354" s="4" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="C354" s="2">
         <v>6326499</v>
@@ -4960,10 +4960,10 @@
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A355" s="4" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="C355" s="2">
         <v>9194</v>
@@ -4971,10 +4971,10 @@
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A356" s="4" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="C356" s="2">
         <v>6331166</v>
@@ -4982,10 +4982,10 @@
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A357" s="4" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="C357" s="2">
         <v>2761498</v>
@@ -4993,10 +4993,10 @@
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A358" s="4" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="C358" s="2">
         <v>337507</v>
@@ -5004,10 +5004,10 @@
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A359" s="4" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="C359" s="2">
         <v>1874422</v>
@@ -5015,10 +5015,10 @@
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A360" s="4" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="C360" s="2">
         <v>3623929</v>
@@ -5026,10 +5026,10 @@
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A361" s="4" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="C361" s="2">
         <v>1304010</v>
@@ -5037,10 +5037,10 @@
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A362" s="4" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="C362" s="2">
         <v>4643552</v>
@@ -5048,10 +5048,10 @@
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A363" s="4" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="C363" s="2">
         <v>764028</v>
@@ -5059,10 +5059,10 @@
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A364" s="4" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="C364" s="2">
         <v>1384253</v>
@@ -5070,10 +5070,10 @@
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A365" s="4" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="C365" s="2">
         <v>6502514</v>
@@ -5081,10 +5081,10 @@
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A366" s="4" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="C366" s="2">
         <v>27240</v>
@@ -5092,10 +5092,10 @@
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A367" s="4" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="C367" s="2">
         <v>6745901</v>
@@ -5103,10 +5103,10 @@
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A368" s="4" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="C368" s="2">
         <v>3068676</v>
@@ -5114,10 +5114,10 @@
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A369" s="4" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="C369" s="2">
         <v>291719</v>
@@ -5125,10 +5125,10 @@
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A370" s="4" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="C370" s="2">
         <v>2046979</v>
@@ -5136,10 +5136,10 @@
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A371" s="4" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="C371" s="2">
         <v>3843441</v>
@@ -5147,10 +5147,10 @@
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A372" s="4" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="C372" s="2">
         <v>1432685</v>
@@ -5158,10 +5158,10 @@
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A373" s="4" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="C373" s="2">
         <v>5433987</v>
@@ -5169,10 +5169,10 @@
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A374" s="4" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="C374" s="2">
         <v>768053</v>
@@ -5180,10 +5180,10 @@
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A375" s="4" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="C375" s="2">
         <v>1444671</v>
@@ -5191,10 +5191,10 @@
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A376" s="4" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="C376" s="2">
         <v>6357661</v>
@@ -5202,10 +5202,10 @@
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A377" s="4" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="C377" s="2">
         <v>33090</v>
@@ -5213,10 +5213,10 @@
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A378" s="4" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="C378" s="2">
         <v>7232084</v>
@@ -5224,10 +5224,10 @@
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A379" s="4" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="C379" s="2">
         <v>3014678</v>
@@ -5235,10 +5235,10 @@
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A380" s="4" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="C380" s="2">
         <v>326777</v>
@@ -5246,10 +5246,10 @@
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A381" s="4" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="C381" s="2">
         <v>2293761</v>
@@ -5257,10 +5257,10 @@
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A382" s="4" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="C382" s="2">
         <v>4309744</v>
@@ -5268,10 +5268,10 @@
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A383" s="4" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="C383" s="2">
         <v>1591068</v>
@@ -5279,10 +5279,10 @@
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A384" s="4" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="C384" s="2">
         <v>5811621</v>
@@ -5290,10 +5290,10 @@
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A385" s="4" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="C385" s="2">
         <v>865910</v>
@@ -5301,10 +5301,10 @@
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A386" s="4" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="C386" s="2">
         <v>1660516</v>
@@ -5312,10 +5312,10 @@
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A387" s="4" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="C387" s="2">
         <v>6602221</v>
@@ -5323,10 +5323,10 @@
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A388" s="4" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="C388" s="2">
         <v>69523</v>
@@ -5334,10 +5334,10 @@
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A389" s="4" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="C389" s="2">
         <v>8493638</v>
@@ -5345,10 +5345,10 @@
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A390" s="4" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="C390" s="2">
         <v>2958179</v>
@@ -5356,10 +5356,10 @@
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A391" s="4" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="C391" s="2">
         <v>296061</v>
@@ -5367,10 +5367,10 @@
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A392" s="4" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="C392" s="2">
         <v>2438194</v>
@@ -5378,10 +5378,10 @@
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A393" s="4" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="C393" s="2">
         <v>5032465</v>
@@ -5389,10 +5389,10 @@
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A394" s="4" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="C394" s="2">
         <v>1830994</v>
@@ -5400,10 +5400,10 @@
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A395" s="4" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="C395" s="2">
         <v>6360767</v>
@@ -5411,10 +5411,10 @@
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A396" s="4" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="C396" s="2">
         <v>892491</v>
@@ -5422,10 +5422,10 @@
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A397" s="4" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="C397" s="2">
         <v>1766267</v>
@@ -5433,10 +5433,10 @@
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A398" s="4" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="C398" s="2">
         <v>7126659</v>
@@ -5444,10 +5444,10 @@
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A399" s="4" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="C399" s="2">
         <v>119115</v>
@@ -5455,10 +5455,10 @@
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A400" s="4" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="C400" s="2">
         <v>9715752</v>
@@ -5466,10 +5466,10 @@
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A401" s="4" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="C401" s="2">
         <v>3152208</v>
@@ -5477,10 +5477,10 @@
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A402" s="4" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="C402" s="2">
         <v>356164</v>
@@ -5488,10 +5488,10 @@
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A403" s="4" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="C403" s="2">
         <v>2463192</v>
@@ -5499,10 +5499,10 @@
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A404" s="4" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="C404" s="2">
         <v>5598673</v>
@@ -5510,10 +5510,10 @@
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A405" s="4" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="C405" s="2">
         <v>2010042</v>
@@ -5521,10 +5521,10 @@
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A406" s="4" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="C406" s="2">
         <v>6947017</v>
@@ -5532,10 +5532,10 @@
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A407" s="4" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="C407" s="2">
         <v>946518</v>
@@ -5543,10 +5543,10 @@
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A408" s="4" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="C408" s="2">
         <v>1925754</v>
@@ -5554,10 +5554,10 @@
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A409" s="4" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="C409" s="2">
         <v>7625400</v>
@@ -5565,10 +5565,10 @@
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A410" s="4" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="C410" s="2">
         <v>108957</v>
@@ -5576,10 +5576,10 @@
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A411" s="4" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="B411" s="1" t="s">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="C411" s="2">
         <v>9898757</v>
@@ -5587,10 +5587,10 @@
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A412" s="4" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="C412" s="2">
         <v>3363705</v>
@@ -5598,10 +5598,10 @@
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A413" s="4" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="B413" s="1" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="C413" s="2">
         <v>440490</v>
@@ -5609,10 +5609,10 @@
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A414" s="4" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="C414" s="2">
         <v>2472109</v>
@@ -5620,10 +5620,10 @@
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A415" s="4" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="B415" s="1" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="C415" s="2">
         <v>6259870</v>
@@ -5631,10 +5631,10 @@
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A416" s="4" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="B416" s="1" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="C416" s="2">
         <v>2231137</v>
@@ -5642,10 +5642,10 @@
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A417" s="4" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="C417" s="2">
         <v>7325572</v>
@@ -5653,10 +5653,10 @@
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A418" s="4" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="C418" s="2">
         <v>1070249</v>
@@ -5664,10 +5664,10 @@
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A419" s="4" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="B419" s="1" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="C419" s="2">
         <v>2173461</v>
@@ -5675,10 +5675,10 @@
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A420" s="4" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="C420" s="2">
         <v>8006156</v>
@@ -5686,10 +5686,10 @@
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A421" s="4" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="B421" s="1" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="C421" s="2">
         <v>77500</v>
@@ -5697,10 +5697,10 @@
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A422" s="4" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="C422" s="2">
         <v>10320106</v>
@@ -5708,10 +5708,10 @@
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A423" s="4" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="B423" s="1" t="s">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="C423" s="2">
         <v>3599690</v>
@@ -5719,10 +5719,10 @@
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A424" s="4" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="B424" s="1" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="C424" s="2">
         <v>496162</v>
@@ -5730,10 +5730,10 @@
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A425" s="4" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="B425" s="1" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="C425" s="2">
         <v>2608807</v>
@@ -5741,10 +5741,10 @@
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A426" s="4" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="B426" s="1" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="C426" s="2">
         <v>6815803</v>
@@ -5752,10 +5752,10 @@
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A427" s="4" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="B427" s="1" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="C427" s="2">
         <v>2374220</v>
@@ -5763,10 +5763,10 @@
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A428" s="4" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="B428" s="1" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="C428" s="2">
         <v>7950917</v>
@@ -5774,10 +5774,10 @@
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A429" s="4" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="B429" s="1" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="C429" s="2">
         <v>1118455</v>
@@ -5785,10 +5785,10 @@
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A430" s="4" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="B430" s="1" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="C430" s="2">
         <v>2248101</v>
@@ -5796,10 +5796,10 @@
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A431" s="4" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="B431" s="1" t="s">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="C431" s="2">
         <v>8454970</v>
@@ -5807,10 +5807,10 @@
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A432" s="4" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="B432" s="1" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="C432" s="2">
         <v>88737</v>
@@ -5818,10 +5818,10 @@
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A433" s="4" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="B433" s="1" t="s">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="C433" s="2">
         <v>11025074</v>
@@ -5829,10 +5829,10 @@
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A434" s="4" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="B434" s="1" t="s">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="C434" s="2">
         <v>3915592</v>
@@ -5840,10 +5840,10 @@
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A435" s="4" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="B435" s="1" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="C435" s="2">
         <v>590123</v>
@@ -5851,10 +5851,10 @@
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A436" s="4" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="B436" s="1" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="C436" s="2">
         <v>2721769</v>
@@ -5862,10 +5862,10 @@
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A437" s="4" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="B437" s="1" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="C437" s="2">
         <v>7594334</v>
@@ -5873,10 +5873,10 @@
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A438" s="4" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="B438" s="1" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="C438" s="2">
         <v>2628262</v>
@@ -5884,10 +5884,10 @@
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A439" s="4" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="B439" s="1" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="C439" s="2">
         <v>8572806</v>
@@ -5895,10 +5895,10 @@
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A440" s="4" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="B440" s="1" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="C440" s="2">
         <v>1262095</v>
@@ -5906,10 +5906,10 @@
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A441" s="4" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="B441" s="1" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="C441" s="2">
         <v>2420976</v>
@@ -5917,10 +5917,10 @@
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A442" s="4" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="B442" s="1" t="s">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="C442" s="2">
         <v>8816863</v>
@@ -5928,10 +5928,10 @@
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A443" s="4" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="B443" s="1" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="C443" s="2">
         <v>103133</v>
@@ -5939,10 +5939,10 @@
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A444" s="4" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="B444" s="1" t="s">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="C444" s="2">
         <v>9988717</v>
@@ -5950,10 +5950,10 @@
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A445" s="4" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="B445" s="1" t="s">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="C445" s="2">
         <v>3422227</v>
@@ -5961,10 +5961,10 @@
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A446" s="4" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="B446" s="1" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="C446" s="2">
         <v>610745</v>
@@ -5972,10 +5972,10 @@
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A447" s="4" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="B447" s="1" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="C447" s="2">
         <v>2094775</v>
@@ -5983,10 +5983,10 @@
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A448" s="4" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="B448" s="1" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="C448" s="2">
         <v>7018633</v>
@@ -5994,10 +5994,10 @@
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A449" s="4" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="B449" s="1" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="C449" s="2">
         <v>2697492</v>
@@ -6005,10 +6005,10 @@
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A450" s="4" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="B450" s="1" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="C450" s="2">
         <v>8413967</v>
@@ -6016,10 +6016,10 @@
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A451" s="4" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="B451" s="1" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="C451" s="2">
         <v>1313039</v>
@@ -6027,10 +6027,10 @@
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A452" s="4" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="B452" s="1" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="C452" s="2">
         <v>2233758</v>
